--- a/六月份全体工作总结.xlsx
+++ b/六月份全体工作总结.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{45EF9905-0471-48D3-8B37-4BE85D3D3571}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3609468B-707E-4C2D-95D3-E6D6E6FFC91D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>张靖晗</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,9 @@
   <si>
     <t>许留留</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验经验不足，仍需更加努力</t>
   </si>
 </sst>
 </file>
@@ -499,6 +502,9 @@
       <c r="A10" t="s">
         <v>16</v>
       </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
